--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\Desktop\新しいフォルダー\004_技術資料\002_コマンド\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shotatsuji/work/document/share/document/004_技術資料/002_コマンド/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2610878D-4CE8-4A09-B45C-166F1E0847C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC71C8E-EF52-0340-8F4F-73C01EC2CF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="3520" windowWidth="21600" windowHeight="12740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
+    <sheet name="terminal" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -119,12 +120,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>unzip ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zipファイルを解凍する</t>
+    <rPh sb="8" eb="10">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,17 +522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD84590-C9CC-4514-942E-F68A6A71E589}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -548,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -562,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -576,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -590,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -598,7 +610,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -606,7 +618,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -614,7 +626,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -622,7 +634,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -630,7 +642,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -638,7 +650,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -646,7 +658,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -654,7 +666,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -662,7 +674,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -670,7 +682,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -678,7 +690,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -686,7 +698,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -694,7 +706,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -702,7 +714,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -710,7 +722,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -718,7 +730,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -726,7 +738,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -734,7 +746,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -742,7 +754,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -750,7 +762,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -758,7 +770,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -766,7 +778,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -774,7 +786,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -782,7 +794,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -790,7 +802,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -798,7 +810,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -806,7 +818,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -814,7 +826,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -822,7 +834,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -830,7 +842,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -838,7 +850,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -846,7 +858,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -854,7 +866,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -862,7 +874,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -870,7 +882,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -878,7 +890,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -886,7 +898,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -894,7 +906,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -902,7 +914,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -910,7 +922,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -918,7 +930,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -926,7 +938,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -934,7 +946,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -942,7 +954,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -950,7 +962,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -958,7 +970,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -966,7 +978,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -974,7 +986,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -982,7 +994,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -990,7 +1002,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -998,7 +1010,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1006,7 +1018,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1014,7 +1026,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1022,7 +1034,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1030,7 +1042,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1038,7 +1050,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1046,7 +1058,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1054,7 +1066,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1062,7 +1074,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1070,7 +1082,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1078,7 +1090,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1086,7 +1098,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1094,7 +1106,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1102,7 +1114,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1110,7 +1122,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1118,7 +1130,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1126,7 +1138,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1134,7 +1146,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1142,7 +1154,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1150,7 +1162,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1158,7 +1170,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1166,7 +1178,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1174,7 +1186,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1182,7 +1194,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1190,7 +1202,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1198,7 +1210,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1206,7 +1218,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1214,7 +1226,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1222,7 +1234,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1230,7 +1242,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1238,7 +1250,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1246,7 +1258,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1254,7 +1266,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1262,7 +1274,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1270,7 +1282,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1278,7 +1290,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1286,7 +1298,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1294,7 +1306,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1302,7 +1314,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1310,7 +1322,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1318,7 +1330,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1326,7 +1338,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1334,7 +1346,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1342,7 +1354,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1350,7 +1362,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1358,7 +1370,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1366,7 +1378,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -1374,7 +1386,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -1382,7 +1394,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -1390,7 +1402,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -1398,7 +1410,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -1406,7 +1418,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -1414,7 +1426,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -1422,7 +1434,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -1430,7 +1442,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -1438,7 +1450,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -1446,7 +1458,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -1454,7 +1466,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -1462,7 +1474,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -1470,7 +1482,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -1478,7 +1490,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -1486,7 +1498,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -1494,7 +1506,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -1502,7 +1514,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -1510,7 +1522,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -1518,7 +1530,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -1526,7 +1538,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -1534,7 +1546,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -1542,7 +1554,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -1550,7 +1562,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -1558,7 +1570,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -1566,7 +1578,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -1574,7 +1586,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -1582,7 +1594,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -1590,7 +1602,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -1598,7 +1610,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -1606,7 +1618,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -1614,7 +1626,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -1622,7 +1634,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -1630,7 +1642,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -1638,7 +1650,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -1646,7 +1658,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -1654,7 +1666,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -1662,7 +1674,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -1670,7 +1682,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -1678,7 +1690,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -1686,7 +1698,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -1694,7 +1706,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -1702,7 +1714,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -1710,7 +1722,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -1718,7 +1730,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -1726,7 +1738,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -1734,7 +1746,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -1742,7 +1754,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -1750,7 +1762,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -1758,7 +1770,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -1766,7 +1778,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -1774,7 +1786,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -1782,7 +1794,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -1790,7 +1802,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -1798,7 +1810,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -1806,7 +1818,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -1814,7 +1826,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -1822,7 +1834,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -1830,7 +1842,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -1838,7 +1850,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -1846,7 +1858,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -1854,7 +1866,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -1862,7 +1874,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -1870,7 +1882,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -1878,7 +1890,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -1886,7 +1898,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -1894,7 +1906,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -1902,7 +1914,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -1910,7 +1922,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -1918,7 +1930,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -1926,7 +1938,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -1934,7 +1946,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -1942,7 +1954,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -1950,7 +1962,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -1958,7 +1970,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -1966,7 +1978,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -1974,7 +1986,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -1982,7 +1994,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -1990,7 +2002,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -1998,7 +2010,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -2006,7 +2018,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -2014,7 +2026,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -2022,7 +2034,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -2030,7 +2042,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -2038,7 +2050,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -2046,7 +2058,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -2054,7 +2066,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -2062,7 +2074,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -2070,7 +2082,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -2078,7 +2090,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -2086,7 +2098,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -2094,7 +2106,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -2102,7 +2114,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -2110,7 +2122,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -2118,7 +2130,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -2126,7 +2138,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -2134,7 +2146,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -2142,7 +2154,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -2150,7 +2162,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -2158,7 +2170,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -2166,7 +2178,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -2174,7 +2186,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -2182,7 +2194,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -2190,7 +2202,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -2198,7 +2210,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -2206,7 +2218,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -2214,7 +2226,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -2222,7 +2234,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -2230,7 +2242,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -2238,7 +2250,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -2246,7 +2258,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -2254,7 +2266,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -2262,7 +2274,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -2270,7 +2282,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -2278,7 +2290,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -2286,7 +2298,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -2294,7 +2306,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -2302,7 +2314,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -2310,7 +2322,7 @@
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -2318,7 +2330,7 @@
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -2326,7 +2338,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -2334,7 +2346,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -2342,7 +2354,7 @@
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:4">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -2350,7 +2362,7 @@
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -2358,7 +2370,7 @@
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:4">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -2366,7 +2378,7 @@
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:4">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -2374,7 +2386,7 @@
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:4">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -2382,7 +2394,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -2390,7 +2402,7 @@
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -2398,7 +2410,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:4">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -2406,7 +2418,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:4">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -2414,7 +2426,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -2422,7 +2434,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:4">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -2430,7 +2442,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:4">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -2438,7 +2450,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:4">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -2446,7 +2458,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:4">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -2454,7 +2466,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -2462,7 +2474,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:4">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -2470,7 +2482,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -2478,7 +2490,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -2486,7 +2498,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -2494,7 +2506,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -2502,7 +2514,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -2510,7 +2522,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -2518,7 +2530,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -2526,7 +2538,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -2534,7 +2546,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -2542,7 +2554,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:4">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -2550,7 +2562,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -2558,7 +2570,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:4">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -2566,7 +2578,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -2574,7 +2586,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -2582,7 +2594,7 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -2590,7 +2602,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -2598,7 +2610,7 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -2606,7 +2618,7 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -2614,7 +2626,7 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:4">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -2622,7 +2634,7 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:4">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -2630,7 +2642,7 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:4">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -2638,7 +2650,7 @@
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -2646,7 +2658,7 @@
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -2654,7 +2666,7 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:4">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -2662,7 +2674,7 @@
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:4">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -2670,7 +2682,7 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:4">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -2678,7 +2690,7 @@
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:4">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:4">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -2694,7 +2706,7 @@
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:4">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -2702,7 +2714,7 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -2710,7 +2722,7 @@
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:4">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -2718,7 +2730,7 @@
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -2726,7 +2738,7 @@
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:4">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -2734,7 +2746,7 @@
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:4">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -2742,7 +2754,7 @@
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -2750,7 +2762,7 @@
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:4">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -2758,7 +2770,7 @@
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -2766,7 +2778,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -2774,7 +2786,7 @@
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -2782,7 +2794,7 @@
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -2790,7 +2802,7 @@
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -2798,7 +2810,7 @@
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -2806,7 +2818,7 @@
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:4">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -2814,7 +2826,7 @@
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -2822,7 +2834,7 @@
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -2830,7 +2842,7 @@
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -2838,7 +2850,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -2846,7 +2858,7 @@
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -2854,7 +2866,7 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -2862,7 +2874,7 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -2870,7 +2882,7 @@
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -2878,7 +2890,7 @@
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -2886,7 +2898,7 @@
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -2894,7 +2906,7 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -2902,7 +2914,7 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -2910,7 +2922,7 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:4">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -2918,7 +2930,7 @@
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -2926,7 +2938,7 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -2934,7 +2946,7 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -2942,7 +2954,7 @@
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -2950,7 +2962,7 @@
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -2968,4 +2980,2450 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0997F91C-B6FE-6C41-9B99-32BF76E2ECD8}">
+  <dimension ref="A1:D301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301" xr:uid="{4212AFE7-676F-4A4A-9028-1F4A8A1E7E8D}">
+      <formula1>"open,close"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shotatsuji/work/document/share/document/004_技術資料/002_コマンド/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\document\share\document\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC71C8E-EF52-0340-8F4F-73C01EC2CF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B298F-6D4F-41D7-B7BA-58A7B5ABFC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="3520" windowWidth="21600" windowHeight="12740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,15 +524,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -588,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -610,7 +610,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -618,7 +618,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -634,7 +634,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -642,7 +642,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -674,7 +674,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -730,7 +730,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -778,7 +778,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -898,7 +898,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1010,7 +1010,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -1090,7 +1090,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1114,7 +1114,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1226,7 +1226,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -1338,7 +1338,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -1434,7 +1434,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -1506,7 +1506,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -1554,7 +1554,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -1642,7 +1642,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -1898,7 +1898,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -1906,7 +1906,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -1978,7 +1978,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -2130,7 +2130,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -2194,7 +2194,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -2234,7 +2234,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -2522,7 +2522,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -2578,7 +2578,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -2594,7 +2594,7 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -2602,7 +2602,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -2626,7 +2626,7 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -2650,7 +2650,7 @@
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -2658,7 +2658,7 @@
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -2738,7 +2738,7 @@
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -2762,7 +2762,7 @@
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -2786,7 +2786,7 @@
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -2890,7 +2890,7 @@
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -2922,7 +2922,7 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -2938,7 +2938,7 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -2988,15 +2988,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3010,21 +3010,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3040,7 +3040,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3064,7 +3064,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3104,7 +3104,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3152,7 +3152,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3160,7 +3160,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3256,7 +3256,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3312,7 +3312,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3328,7 +3328,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3384,7 +3384,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3400,7 +3400,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3424,7 +3424,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3472,7 +3472,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3488,7 +3488,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3568,7 +3568,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3632,7 +3632,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3744,7 +3744,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3816,7 +3816,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3832,7 +3832,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3896,7 +3896,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3920,7 +3920,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3952,7 +3952,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4000,7 +4000,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4016,7 +4016,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4032,7 +4032,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4056,7 +4056,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4064,7 +4064,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4096,7 +4096,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4144,7 +4144,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4152,7 +4152,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4160,7 +4160,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4200,7 +4200,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4256,7 +4256,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4272,7 +4272,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4296,7 +4296,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4304,7 +4304,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4312,7 +4312,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4320,7 +4320,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4336,7 +4336,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4344,7 +4344,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4392,7 +4392,7 @@
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4480,7 +4480,7 @@
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4512,7 +4512,7 @@
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4528,7 +4528,7 @@
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4544,7 +4544,7 @@
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4576,7 +4576,7 @@
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -4608,7 +4608,7 @@
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -4624,7 +4624,7 @@
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -4640,7 +4640,7 @@
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -4656,7 +4656,7 @@
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -4896,7 +4896,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -4912,7 +4912,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -4960,7 +4960,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -4968,7 +4968,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -5000,7 +5000,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -5040,7 +5040,7 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -5088,7 +5088,7 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -5104,7 +5104,7 @@
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -5120,7 +5120,7 @@
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -5168,7 +5168,7 @@
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -5224,7 +5224,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -5264,7 +5264,7 @@
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -5280,7 +5280,7 @@
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -5296,7 +5296,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -5304,7 +5304,7 @@
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -5352,7 +5352,7 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -5368,7 +5368,7 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -5384,7 +5384,7 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -5392,7 +5392,7 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -5400,7 +5400,7 @@
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -5408,7 +5408,7 @@
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>300</v>
       </c>

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\document\share\document\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B298F-6D4F-41D7-B7BA-58A7B5ABFC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F2B01-7F8A-43B8-93BA-1523625A6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
     <sheet name="terminal" sheetId="12" r:id="rId2"/>
+    <sheet name="linux" sheetId="13" r:id="rId3"/>
+    <sheet name="ubuntu" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -131,6 +133,414 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>文字列(1:変数名)を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo "文字列"(1:$変数名)</t>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべて表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルの詳細も表示</t>
+    <rPh sb="5" eb="7">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-l</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーミッション(ファイル、フォルダの権限)</t>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1※2※3※4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2</t>
+  </si>
+  <si>
+    <t>※3</t>
+  </si>
+  <si>
+    <t>所有者</t>
+    <rPh sb="0" eb="2">
+      <t>ショユウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所有グループ</t>
+    <rPh sb="0" eb="2">
+      <t>ショユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 シムリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※4 読み取り</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※4 書き込み</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※4 実行</t>
+    <rPh sb="3" eb="5">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルやディレクトリ情報を表示する</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレントディレクトリを表示する</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パス(1:最上階 2:相対パス)に移動する</t>
+    <rPh sb="5" eb="8">
+      <t>サイジョウカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd パス(1:/ 2:~/相対パスディレクトリ)</t>
+    <rPh sb="14" eb="16">
+      <t>ソウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>touch ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルを削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rm ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリを削除の対象とする</t>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスクの使用量をディレクトリごとに集計して表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>du</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定したディレクトリの合計のみを表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しいアーカイブを作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理したファイルを詳しく出力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーカイブファイル名を指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のファイルを1つにまとめたアーカイブファイルを作成する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tar  ファイル名.(1:tar.gz 2:tar.bz2 3:tar.xz 4:tar 5:zip) 該当フォルダパス</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のファイルを1つにまとめたアーカイブファイルを展開する</t>
+    <rPh sb="25" eb="27">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tar  ファイル名.(1:tar.gz 2:tar.bz2 3:tar.xz 4:tar 5:zip)</t>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-j</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bz2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>env</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境変数一覧を表示する</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウヘンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの識別情報を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>新しいパッケージリストを取得する</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apt-get update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apt-get install package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>packageをインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理中に現れるプロンプトに対して常に"yes"と解答する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-y</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,21 +606,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -221,6 +776,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+  <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}" name="テーブル10" displayName="テーブル10" ref="F31:H37" totalsRowShown="0">
+  <autoFilter ref="F31:H37" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{849B791E-BFC9-4788-80E4-EA18A1557D79}" name="操作の説明"/>
+    <tableColumn id="2" xr3:uid="{80E703EE-5ABF-4DC6-BA28-6FC365290327}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{0B880A3A-EC92-45B8-91DF-43D7945E414E}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{737B2192-06DF-49C1-84E8-BEAD85893187}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
+  <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{41A11C6D-7BAB-44F4-8F2F-C193653AEB88}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{BF2848A5-2722-44C0-B2E0-B57A538E7E7C}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
+  <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F63970AD-744B-4B20-AA71-DA482D22938C}" name="操作の説明"/>
+    <tableColumn id="2" xr3:uid="{C48EB6BD-8B7C-42FE-BE68-AD44058B03EE}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{F25AF14C-0BB9-4444-BB9D-D7914915BB92}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}" name="テーブル2" displayName="テーブル2" ref="F3:H5" totalsRowShown="0">
+  <autoFilter ref="F3:H5" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F215E8E9-FF1C-4229-93DC-8423BE148B82}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{B3F623C3-1B33-4459-B4C0-1C8B2BA9F880}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+  <autoFilter ref="F7:F8" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}" name="テーブル4" displayName="テーブル4" ref="F9:H17" totalsRowShown="0">
+  <autoFilter ref="F9:H17" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0374ED8F-DFD3-4C79-8BA9-0174FD707E8E}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{00DC9214-8803-4952-BC31-18E5804391B6}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="F19:F20" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E818AB7C-586F-4A27-B0B1-5D660CB6BEC1}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
+  <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
+  <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{39777334-D76B-480A-A0F7-FD67FF63F194}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}" name="テーブル9" displayName="テーブル9" ref="F29:G30" totalsRowShown="0">
+  <autoFilter ref="F29:G30" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{84E6FBA7-11FC-4943-B598-C15BDE5089C5}" name="番号"/>
+    <tableColumn id="2" xr3:uid="{4F1FF764-8E4A-4FD2-8240-7350C72D5624}" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2986,7 +3696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0997F91C-B6FE-6C41-9B99-32BF76E2ECD8}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5426,4 +6136,5305 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F96973-F6BA-4572-96C3-B17683372F7A}">
+  <dimension ref="A1:H301"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="F20" s="5">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="F24" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="F26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="F29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="F30" s="5">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="F33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="F39" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="F40" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="F41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="F42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="F43" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4:H5 H10:H17 H22 H27 H32:H37 H42:H43" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
+      <formula1>"open,close"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="12">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB77D0E-C8FC-4AF9-B40B-8D073A82BDF6}">
+  <dimension ref="A1:H301"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4" xr:uid="{47E44652-B002-417B-85C4-DACF058320E7}">
+      <formula1>"open,close"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\document\share\document\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7F2B01-7F8A-43B8-93BA-1523625A6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC084043-EA00-4ED2-BA41-02A1F7050B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -541,6 +541,89 @@
     <t>-y</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルやディレクトリ情報の表示</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作の説明</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルやフォルダのみ書き出す</t>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブフォルダも対象に含める</t>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/a-d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォルダの名前を除外</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -638,7 +721,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -647,14 +730,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -765,6 +840,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -779,16 +871,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
-  <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="F1:F2" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{6A2296FF-55A7-4C0B-B305-B8D08B65D0CA}" name="番号"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
+  <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{39777334-D76B-480A-A0F7-FD67FF63F194}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}" name="テーブル9" displayName="テーブル9" ref="F29:G30" totalsRowShown="0">
+  <autoFilter ref="F29:G30" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{84E6FBA7-11FC-4943-B598-C15BDE5089C5}" name="番号"/>
+    <tableColumn id="2" xr3:uid="{4F1FF764-8E4A-4FD2-8240-7350C72D5624}" name="列1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}" name="テーブル10" displayName="テーブル10" ref="F31:H37" totalsRowShown="0">
   <autoFilter ref="F31:H37" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}"/>
   <tableColumns count="3">
@@ -800,8 +915,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="2">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{737B2192-06DF-49C1-84E8-BEAD85893187}" name="番号"/>
@@ -810,11 +925,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
   <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{41A11C6D-7BAB-44F4-8F2F-C193653AEB88}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BF2848A5-2722-44C0-B2E0-B57A538E7E7C}" name="進捗"/>
   </tableColumns>
@@ -822,8 +937,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
@@ -832,7 +947,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
   <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
@@ -845,10 +960,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A7FFDE24-96A0-4BC0-8A44-177FED09AC87}" name="テーブル14" displayName="テーブル14" ref="F3:H6" totalsRowShown="0">
+  <autoFilter ref="F3:H6" xr:uid="{A7FFDE24-96A0-4BC0-8A44-177FED09AC87}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{39066FAE-006E-4FB1-A34F-FE123C995EC6}" name="操作の説明"/>
+    <tableColumn id="2" xr3:uid="{3A25B370-580D-4DE7-86DB-825AB2B463A3}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{C3D4D4AE-0E9D-45B2-B514-259905BC325C}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}" name="テーブル2" displayName="テーブル2" ref="F3:H5" totalsRowShown="0">
   <autoFilter ref="F3:H5" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{F215E8E9-FF1C-4229-93DC-8423BE148B82}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{B3F623C3-1B33-4459-B4C0-1C8B2BA9F880}" name="進捗"/>
   </tableColumns>
@@ -856,21 +993,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="8" dataDxfId="9">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="F7:F8" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}" name="テーブル4" displayName="テーブル4" ref="F9:H17" totalsRowShown="0">
   <autoFilter ref="F9:H17" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{0374ED8F-DFD3-4C79-8BA9-0174FD707E8E}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{00DC9214-8803-4952-BC31-18E5804391B6}" name="進捗"/>
   </tableColumns>
@@ -878,8 +1015,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="6">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="F19:F20" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E818AB7C-586F-4A27-B0B1-5D660CB6BEC1}" name="番号"/>
@@ -888,11 +1025,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
   <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
   </tableColumns>
@@ -900,34 +1037,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="4">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
-  <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
-    <tableColumn id="3" xr3:uid="{39777334-D76B-480A-A0F7-FD67FF63F194}" name="進捗"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}" name="テーブル9" displayName="テーブル9" ref="F29:G30" totalsRowShown="0">
-  <autoFilter ref="F29:G30" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{84E6FBA7-11FC-4943-B598-C15BDE5089C5}" name="番号"/>
-    <tableColumn id="2" xr3:uid="{4F1FF764-8E4A-4FD2-8240-7350C72D5624}" name="列1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1230,9 +1344,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD84590-C9CC-4514-942E-F68A6A71E589}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1240,9 +1354,11 @@
     <col min="2" max="2" width="73.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1255,8 +1371,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1269,8 +1388,11 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1283,8 +1405,17 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1297,8 +1428,17 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1311,16 +1451,40 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1328,7 +1492,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1336,7 +1500,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1344,7 +1508,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1352,7 +1516,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1360,7 +1524,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1368,7 +1532,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1376,7 +1540,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1384,7 +1548,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1392,7 +1556,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3683,12 +3847,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301" xr:uid="{FA9C11F0-E67A-4736-B0CA-6AEE674688E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4:H6" xr:uid="{FA9C11F0-E67A-4736-B0CA-6AEE674688E5}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8957,7 +9125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB77D0E-C8FC-4AF9-B40B-8D073A82BDF6}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shotatsuji/work/document/share/document/004_技術資料/002_コマンド/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shotatsuji/work/doc/share/004_技術資料/002_コマンド/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F9D976-553E-7542-BA29-E8B4F40D95A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E404F-9986-EE4D-AC71-7FE70000D870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -641,6 +641,27 @@
     <t>zip [zipファイル名] [ファイル名]</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>[zipフォルダ名]に[フォルダ名]を暗号化する</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>アンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ内のファイルを再帰的に扱う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip ※1 [フォルダ名] [フォルダ名]/</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -898,6 +919,28 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
+  <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
   <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
   <tableColumns count="3">
@@ -909,7 +952,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}" name="テーブル9" displayName="テーブル9" ref="F29:G30" totalsRowShown="0">
   <autoFilter ref="F29:G30" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}"/>
   <tableColumns count="2">
@@ -920,7 +963,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}" name="テーブル10" displayName="テーブル10" ref="F31:H37" totalsRowShown="0">
   <autoFilter ref="F31:H37" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}"/>
   <tableColumns count="3">
@@ -932,7 +975,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
   <tableColumns count="1">
@@ -942,7 +985,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
   <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
   <tableColumns count="3">
@@ -954,7 +997,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
@@ -964,7 +1007,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
   <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
@@ -989,6 +1032,28 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BC0F620A-357E-F140-9853-DA65AE6B41C5}" name="テーブル15" displayName="テーブル15" ref="F1:F2" totalsRowShown="0">
+  <autoFilter ref="F1:F2" xr:uid="{BC0F620A-357E-F140-9853-DA65AE6B41C5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F6423084-5518-D545-B56E-F7DAE3B246A4}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C7B3DD23-CAAC-8F42-99EA-FF4A9A191676}" name="テーブル17" displayName="テーブル17" ref="F3:H4" totalsRowShown="0">
+  <autoFilter ref="F3:H4" xr:uid="{C7B3DD23-CAAC-8F42-99EA-FF4A9A191676}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F9EDF1C1-5C12-384B-901C-7B8B9BAB6275}" name="操作の説明"/>
+    <tableColumn id="2" xr3:uid="{EEAAC202-C8E8-3040-A953-B26643541420}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{3328650D-F00C-B14A-B14C-76CF26281746}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
   <tableColumns count="1">
@@ -998,7 +1063,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}" name="テーブル2" displayName="テーブル2" ref="F3:H5" totalsRowShown="0">
   <autoFilter ref="F3:H5" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}"/>
   <tableColumns count="3">
@@ -1010,7 +1075,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="F7:F8" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}"/>
   <tableColumns count="1">
@@ -1020,7 +1085,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}" name="テーブル4" displayName="テーブル4" ref="F9:H17" totalsRowShown="0">
   <autoFilter ref="F9:H17" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}"/>
   <tableColumns count="3">
@@ -1032,33 +1097,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="F19:F20" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E818AB7C-586F-4A27-B0B1-5D660CB6BEC1}" name="番号"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
-  <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
-    <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3879,7 +3922,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0997F91C-B6FE-6C41-9B99-32BF76E2ECD8}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3889,9 +3932,11 @@
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3904,8 +3949,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3918,8 +3966,11 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3932,16 +3983,40 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3949,7 +4024,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3957,7 +4032,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3965,7 +4040,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3973,7 +4048,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3981,7 +4056,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3989,7 +4064,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3997,7 +4072,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4005,7 +4080,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4013,7 +4088,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4021,7 +4096,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4029,7 +4104,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -6320,12 +6395,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301" xr:uid="{4212AFE7-676F-4A4A-9028-1F4A8A1E7E8D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4" xr:uid="{4212AFE7-676F-4A4A-9028-1F4A8A1E7E8D}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB8A290-E342-48B2-9FB2-21B2B65F1A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB24C7C-6F90-4695-876A-098760C13071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="2250" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
     <sheet name="terminal" sheetId="12" r:id="rId2"/>
     <sheet name="linux" sheetId="13" r:id="rId3"/>
     <sheet name="ubuntu" sheetId="16" r:id="rId4"/>
+    <sheet name="centos" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="160">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -677,6 +678,246 @@
     <rPh sb="32" eb="34">
       <t>ヒツヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo コマンド オプション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rootユーザ(管理者権限)でコマンドをオプションで実行する</t>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-y</t>
+  </si>
+  <si>
+    <t>コマンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>daemon-reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>install パッケージソフト</t>
+  </si>
+  <si>
+    <t>check-update</t>
+  </si>
+  <si>
+    <t>update ※1</t>
+  </si>
+  <si>
+    <t>list installed</t>
+  </si>
+  <si>
+    <t>search パッケージソフト</t>
+  </si>
+  <si>
+    <t>info パッケージソフト</t>
+  </si>
+  <si>
+    <t>remove パッケージソフト</t>
+  </si>
+  <si>
+    <t>yum ※1  ※2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 パッケージソフトを依存関係にあるソフトと合わせてインストールする</t>
+  </si>
+  <si>
+    <t>※1 パッケージソフト提供元にアップデートがないかチェックする</t>
+  </si>
+  <si>
+    <t>※1 パッケージソフト提供元にアップデートがないかチェックし、あればアップデートする</t>
+  </si>
+  <si>
+    <t>※1 すでにインストールされているパッケージソフト一覧を表示する</t>
+  </si>
+  <si>
+    <t>※1 パッケージソフト提供元にそのソフト名で検索を行う</t>
+  </si>
+  <si>
+    <t>※1 インストールしているパッケージソフトの情報を表示する</t>
+  </si>
+  <si>
+    <t>※1 インストールしているパッケージソフトを削除する</t>
+  </si>
+  <si>
+    <t>※2 問い合わせすべてにYesと答える</t>
+  </si>
+  <si>
+    <t>start サービス名</t>
+  </si>
+  <si>
+    <t>stop サービス名</t>
+  </si>
+  <si>
+    <t>restart サービス名</t>
+  </si>
+  <si>
+    <t>reload サービス名</t>
+  </si>
+  <si>
+    <t>status サービス名</t>
+  </si>
+  <si>
+    <t>enable サービス名</t>
+  </si>
+  <si>
+    <t>is-enable サービス名</t>
+  </si>
+  <si>
+    <t>disable サービス名</t>
+  </si>
+  <si>
+    <t>systemctl ※1 ※2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>systemdをコントロールする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2 サービス名の開始</t>
+  </si>
+  <si>
+    <t>※2 サービス名の停止</t>
+  </si>
+  <si>
+    <t>※2 サービス名の再起動</t>
+  </si>
+  <si>
+    <t>※2 サービス名の再読み込み</t>
+  </si>
+  <si>
+    <t>※2 サービス名の状態表示</t>
+  </si>
+  <si>
+    <t>※2 サービス名の自動起動オン</t>
+  </si>
+  <si>
+    <t>※2 サービス名の自動起動確認</t>
+  </si>
+  <si>
+    <t>※2 サービス名の自動起動オフ</t>
+  </si>
+  <si>
+    <t>※2 設定ファイルの再読み込み</t>
+  </si>
+  <si>
+    <t>番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検索先でファイル/ディレクトリーを検索する</t>
+    <rPh sb="0" eb="3">
+      <t>ケンサクサキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージソフトを操作する</t>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>find 検索先 ※1</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ファイル/ディレクトリー名で検索する</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-name ファイル/ディレクトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-atime 日数</t>
+    <rPh sb="7" eb="9">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 アクセスした日数(基準:本日日付)で検索する</t>
+    <rPh sb="9" eb="11">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cat ファイルパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルパスの中身を表示する</t>
+    <rPh sb="7" eb="9">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルシステムのディスク容量を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLを指定してファイルをダウンロードする</t>
+    <rPh sb="4" eb="6">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wget URL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -776,7 +1017,50 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -926,7 +1210,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="F1:F2" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{6A2296FF-55A7-4C0B-B305-B8D08B65D0CA}" name="番号"/>
@@ -939,7 +1223,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
   <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
   </tableColumns>
@@ -948,7 +1232,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
@@ -961,7 +1245,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
   <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{39777334-D76B-480A-A0F7-FD67FF63F194}" name="進捗"/>
   </tableColumns>
@@ -993,7 +1277,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{737B2192-06DF-49C1-84E8-BEAD85893187}" name="番号"/>
@@ -1006,7 +1290,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
   <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{41A11C6D-7BAB-44F4-8F2F-C193653AEB88}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BF2848A5-2722-44C0-B2E0-B57A538E7E7C}" name="進捗"/>
   </tableColumns>
@@ -1015,22 +1299,32 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="F45:F46" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
+    <tableColumn id="1" xr3:uid="{AD0438BF-E03B-48C0-B5B8-9AEF62033205}" name="コマンド"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
-  <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}" name="テーブル1219" displayName="テーブル1219" ref="F47:H55" totalsRowShown="0">
+  <autoFilter ref="F47:H55" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F63970AD-744B-4B20-AA71-DA482D22938C}" name="操作の説明"/>
-    <tableColumn id="2" xr3:uid="{C48EB6BD-8B7C-42FE-BE68-AD44058B03EE}" name="操作方法"/>
-    <tableColumn id="3" xr3:uid="{F25AF14C-0BB9-4444-BB9D-D7914915BB92}" name="進捗"/>
+    <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{59EEE5A6-B8D7-46D7-8391-9F68A9C071BF}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{92289722-4A60-4F66-BE22-491A6E40AC75}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="F57:F58" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E4169A0C-4F7D-4475-98E8-2F01475C4DCE}" name="番号"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1043,6 +1337,62 @@
     <tableColumn id="1" xr3:uid="{39066FAE-006E-4FB1-A34F-FE123C995EC6}" name="操作の説明"/>
     <tableColumn id="2" xr3:uid="{3A25B370-580D-4DE7-86DB-825AB2B463A3}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{C3D4D4AE-0E9D-45B2-B514-259905BC325C}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}" name="テーブル1223" displayName="テーブル1223" ref="F59:H61" totalsRowShown="0">
+  <autoFilter ref="F59:H61" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3EF4FB93-730A-4AAD-8303-7F47CBA1DA9F}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{758DB119-4B86-4387-93A6-E1F1F9B733C7}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
+  <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F63970AD-744B-4B20-AA71-DA482D22938C}" name="操作の説明"/>
+    <tableColumn id="2" xr3:uid="{C48EB6BD-8B7C-42FE-BE68-AD44058B03EE}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{F25AF14C-0BB9-4444-BB9D-D7914915BB92}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{2028D46E-70C4-4766-BA2F-B440096E69DA}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B33185C4-02C2-487B-9A63-78AFBE94DDE3}" name="テーブル2621" displayName="テーブル2621" ref="F3:H12" totalsRowShown="0">
+  <autoFilter ref="F3:H12" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{48A46E5B-9699-410F-BB41-A7AAFEC78FB5}" name="操作の説明"/>
+    <tableColumn id="2" xr3:uid="{20B51BF7-90CF-460C-8905-70A6DF78300C}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{AF18C384-79DD-405A-B5CD-44FB8757BA08}" name="進捗"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1071,10 +1421,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1084,7 +1434,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}" name="テーブル2" displayName="テーブル2" ref="F3:H5" totalsRowShown="0">
   <autoFilter ref="F3:H5" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{F215E8E9-FF1C-4229-93DC-8423BE148B82}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{B3F623C3-1B33-4459-B4C0-1C8B2BA9F880}" name="進捗"/>
   </tableColumns>
@@ -1093,10 +1443,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="F7:F8" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1106,7 +1456,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}" name="テーブル4" displayName="テーブル4" ref="F9:H17" totalsRowShown="0">
   <autoFilter ref="F9:H17" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{0374ED8F-DFD3-4C79-8BA9-0174FD707E8E}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{00DC9214-8803-4952-BC31-18E5804391B6}" name="進捗"/>
   </tableColumns>
@@ -1115,7 +1465,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="F19:F20" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E818AB7C-586F-4A27-B0B1-5D660CB6BEC1}" name="番号"/>
@@ -1423,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD84590-C9CC-4514-942E-F68A6A71E589}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6435,21 +6785,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F96973-F6BA-4572-96C3-B17683372F7A}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6723,9 +7073,15 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
@@ -6740,9 +7096,15 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
@@ -6757,9 +7119,15 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F16" s="7" t="s">
         <v>33</v>
       </c>
@@ -6774,9 +7142,15 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F17" s="7" t="s">
         <v>34</v>
       </c>
@@ -6791,9 +7165,15 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
     </row>
@@ -6801,9 +7181,15 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>0</v>
       </c>
@@ -7171,6 +7557,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
+      <c r="F45" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
@@ -7179,6 +7568,9 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
+      <c r="F46" s="5">
+        <v>14</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
@@ -7187,6 +7579,15 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
+      <c r="F47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
@@ -7195,64 +7596,136 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F48" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F49" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F52" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F53" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F54" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7260,47 +7733,80 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F57" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F58" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7308,7 +7814,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7316,7 +7822,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -9223,13 +9729,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4:H5 H10:H17 H22 H27 H32:H37 H42:H43" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 D2:D301" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="12">
+  <tableParts count="16">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -9242,6 +9748,10 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9250,9 +9760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB77D0E-C8FC-4AF9-B40B-8D073A82BDF6}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -11732,4 +12240,2556 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C7070-395C-427C-9778-3C768B61A411}">
+  <dimension ref="A1:H301"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4:H12" xr:uid="{B8CC7235-B233-4341-BE54-0274AF752891}">
+      <formula1>"open,close"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB24C7C-6F90-4695-876A-098760C13071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654316F-0FFA-4151-8BBF-86EF9F527C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="2250" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="2325" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="190">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -682,19 +682,6 @@
   </si>
   <si>
     <t>sudo コマンド オプション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rootユーザ(管理者権限)でコマンドをオプションで実行する</t>
-    <rPh sb="8" eb="11">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジッコウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -918,6 +905,211 @@
   </si>
   <si>
     <t>wget URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規グループを作成する</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groupadd 新規グループ</t>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[一般ユーザーが自身の所属しているグループ/特定のグループに誰が所属しているのか]を確認する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groups ユーザ/グループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID、グループID、サブグループ名を確認する</t>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>useradd ※1 ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザを追加する</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 新規ユーザのログインシェル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 新規ユーザの属する主グループのグループ名またはグループ ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ディレクトリ内のグループも変更</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chgrp ※1 グループ ファイル/ディレクトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル/ディレクトリーのグループを変更する</t>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chown ※1 グループ ファイル/ディレクトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル/ディレクトリーの所有者を変更する</t>
+    <rPh sb="13" eb="16">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ディレクトリ内の所有者も変更</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ショユウシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザのパスワードを確認する</t>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whoami</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のユーザを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passwd ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザアカウントの情報を変更する</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 セカンダリーグループに追加</t>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-aG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rootユーザ(管理者権限)でコマンドをオプションで実行する(wheelのグループに属していないユーザは実行できない)</t>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usermod ※1 ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作しているプロセスを確認する</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ps ※1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 実行しているコマンド名と環境変数を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 プロセスを階層で表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-e</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1017,7 +1209,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1025,6 +1217,83 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1060,6 +1329,14 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1210,7 +1487,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="F1:F2" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{6A2296FF-55A7-4C0B-B305-B8D08B65D0CA}" name="番号"/>
@@ -1223,7 +1500,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
   <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
   </tableColumns>
@@ -1232,7 +1509,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
@@ -1245,7 +1522,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
   <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{39777334-D76B-480A-A0F7-FD67FF63F194}" name="進捗"/>
   </tableColumns>
@@ -1277,7 +1554,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{737B2192-06DF-49C1-84E8-BEAD85893187}" name="番号"/>
@@ -1290,7 +1567,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
   <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{41A11C6D-7BAB-44F4-8F2F-C193653AEB88}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BF2848A5-2722-44C0-B2E0-B57A538E7E7C}" name="進捗"/>
   </tableColumns>
@@ -1299,7 +1576,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="F45:F46" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AD0438BF-E03B-48C0-B5B8-9AEF62033205}" name="コマンド"/>
@@ -1312,7 +1589,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}" name="テーブル1219" displayName="テーブル1219" ref="F47:H55" totalsRowShown="0">
   <autoFilter ref="F47:H55" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{59EEE5A6-B8D7-46D7-8391-9F68A9C071BF}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{92289722-4A60-4F66-BE22-491A6E40AC75}" name="進捗"/>
   </tableColumns>
@@ -1321,7 +1598,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="F57:F58" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E4169A0C-4F7D-4475-98E8-2F01475C4DCE}" name="番号"/>
@@ -1346,7 +1623,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}" name="テーブル1223" displayName="テーブル1223" ref="F59:H61" totalsRowShown="0">
   <autoFilter ref="F59:H61" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{3EF4FB93-730A-4AAD-8303-7F47CBA1DA9F}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{758DB119-4B86-4387-93A6-E1F1F9B733C7}" name="進捗"/>
   </tableColumns>
@@ -1355,7 +1632,127 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="F63:F64" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7B40C0DE-0BE6-4AFC-B122-4F1D8CA31437}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}" name="テーブル122325" displayName="テーブル122325" ref="F65:H67" totalsRowShown="0">
+  <autoFilter ref="F65:H67" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0556E31F-66BD-46C9-8048-B47B64DDA5AD}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{7147F5E6-5193-4265-8A26-0620E4975F5C}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="F69:F70" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0BDE1D68-D9CF-43F5-AFC2-941A36F8748E}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}" name="テーブル12232529" displayName="テーブル12232529" ref="F71:H72" totalsRowShown="0">
+  <autoFilter ref="F71:H72" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CAB13F09-BF3B-424E-850E-519AFBA70AA2}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{BBEE98CC-5DF6-4046-98C9-2AF71C798EFD}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="F74:F75" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{345A68F1-7A97-4407-B4BE-BF8E0F299DD0}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}" name="テーブル1223252931" displayName="テーブル1223252931" ref="F76:H77" totalsRowShown="0">
+  <autoFilter ref="F76:H77" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7787B71C-CAAC-435B-8282-380F2738DA5B}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{C2B66AEC-5DDF-45BE-8B99-A2D8790E1072}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="F79:F80" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{ED46E24D-1038-476E-B1F9-C681FE879E1F}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}" name="テーブル122325293133" displayName="テーブル122325293133" ref="F81:H82" totalsRowShown="0">
+  <autoFilter ref="F81:H82" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F5CDC7D0-4F6D-4905-9FBF-9835E3D83225}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{501349B0-0A36-405A-B0B1-8A06A8BDD7D0}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="F84:F85" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5FD96153-A699-4A49-A585-0D734452CB1E}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BC0F620A-357E-F140-9853-DA65AE6B41C5}" name="テーブル15" displayName="テーブル15" ref="F1:F2" totalsRowShown="0">
+  <autoFilter ref="F1:F2" xr:uid="{BC0F620A-357E-F140-9853-DA65AE6B41C5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{F6423084-5518-D545-B56E-F7DAE3B246A4}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}" name="テーブル12232529313335" displayName="テーブル12232529313335" ref="F86:H88" totalsRowShown="0">
+  <autoFilter ref="F86:H88" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{51244FE5-6A10-4BFE-803A-0D6C3C0BF579}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{97DAB44E-8C4B-4569-AC49-1F09EA036909}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
@@ -1364,7 +1761,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
   <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
@@ -1376,8 +1773,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="2">
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2028D46E-70C4-4766-BA2F-B440096E69DA}" name="番号"/>
@@ -1386,23 +1783,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B33185C4-02C2-487B-9A63-78AFBE94DDE3}" name="テーブル2621" displayName="テーブル2621" ref="F3:H12" totalsRowShown="0">
   <autoFilter ref="F3:H12" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{48A46E5B-9699-410F-BB41-A7AAFEC78FB5}" name="操作の説明"/>
     <tableColumn id="2" xr3:uid="{20B51BF7-90CF-460C-8905-70A6DF78300C}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{AF18C384-79DD-405A-B5CD-44FB8757BA08}" name="進捗"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{BC0F620A-357E-F140-9853-DA65AE6B41C5}" name="テーブル15" displayName="テーブル15" ref="F1:F2" totalsRowShown="0">
-  <autoFilter ref="F1:F2" xr:uid="{BC0F620A-357E-F140-9853-DA65AE6B41C5}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F6423084-5518-D545-B56E-F7DAE3B246A4}" name="番号"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1421,10 +1808,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1434,7 +1821,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}" name="テーブル2" displayName="テーブル2" ref="F3:H5" totalsRowShown="0">
   <autoFilter ref="F3:H5" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{F215E8E9-FF1C-4229-93DC-8423BE148B82}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{B3F623C3-1B33-4459-B4C0-1C8B2BA9F880}" name="進捗"/>
   </tableColumns>
@@ -1443,10 +1830,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="F7:F8" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1456,7 +1843,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}" name="テーブル4" displayName="テーブル4" ref="F9:H17" totalsRowShown="0">
   <autoFilter ref="F9:H17" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{0374ED8F-DFD3-4C79-8BA9-0174FD707E8E}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{00DC9214-8803-4952-BC31-18E5804391B6}" name="進捗"/>
   </tableColumns>
@@ -1465,7 +1852,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="F19:F20" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E818AB7C-586F-4A27-B0B1-5D660CB6BEC1}" name="番号"/>
@@ -6790,7 +7177,7 @@
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
@@ -6799,7 +7186,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7074,7 +7461,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>106</v>
@@ -7097,10 +7484,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -7120,10 +7507,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -7143,10 +7530,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
@@ -7166,10 +7553,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>
@@ -7182,10 +7569,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
@@ -7199,9 +7586,15 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F20" s="5">
         <v>7</v>
       </c>
@@ -7211,9 +7604,15 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F21" s="7" t="s">
         <v>1</v>
       </c>
@@ -7228,9 +7627,15 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F22" s="7" t="s">
         <v>47</v>
       </c>
@@ -7245,17 +7650,29 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>0</v>
       </c>
@@ -7264,9 +7681,15 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F25" s="5">
         <v>8</v>
       </c>
@@ -7275,9 +7698,15 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F26" s="7" t="s">
         <v>1</v>
       </c>
@@ -7292,9 +7721,15 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F27" s="7" t="s">
         <v>52</v>
       </c>
@@ -7309,18 +7744,30 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>0</v>
       </c>
@@ -7558,7 +8005,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -7597,10 +8044,10 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -7614,10 +8061,10 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -7631,10 +8078,10 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -7648,10 +8095,10 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="F51" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -7665,10 +8112,10 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="F52" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -7682,10 +8129,10 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -7699,10 +8146,10 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -7716,10 +8163,10 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="F55" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -7780,10 +8227,10 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="F60" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -7797,10 +8244,10 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="F61" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -7821,6 +8268,9 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
+      <c r="F63" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
@@ -7829,32 +8279,62 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F64" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F66" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F67" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7862,39 +8342,63 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F69" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F70" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F72" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -7902,39 +8406,63 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F74" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F75" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F77" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -7942,39 +8470,63 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F79" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F80" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F81" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F82" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -7982,47 +8534,80 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F84" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F85" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F86" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F87" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F88" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8030,7 +8615,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8038,7 +8623,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8046,7 +8631,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8054,7 +8639,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8062,7 +8647,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -8070,7 +8655,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -8078,7 +8663,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9729,13 +10314,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 D2:D301" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 D2:D301 H87:H88" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="16">
+  <tableParts count="26">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -9752,6 +10337,16 @@
     <tablePart r:id="rId15"/>
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12282,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -12321,10 +12916,10 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -12338,10 +12933,10 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -12355,10 +12950,10 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -12372,10 +12967,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -12389,10 +12984,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -12406,10 +13001,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -12423,10 +13018,10 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -12440,10 +13035,10 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -12457,10 +13052,10 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654316F-0FFA-4151-8BBF-86EF9F527C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1FCE5-873E-4DE7-A784-5C454AC5872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="2325" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="1920" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="200">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1110,6 +1110,64 @@
   </si>
   <si>
     <t>-e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mkdir ※1 ディレクトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリーを作成する</t>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリーを削除する</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rmdir ※1 ディレクトリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list-unit-files</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※2 サービス名の確認</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userdel ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>groupdel グループ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザを削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループを削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1217,6 +1275,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1302,7 +1361,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1632,7 +1690,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="F63:F64" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7B40C0DE-0BE6-4AFC-B122-4F1D8CA31437}" name="番号"/>
@@ -1645,7 +1703,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}" name="テーブル122325" displayName="テーブル122325" ref="F65:H67" totalsRowShown="0">
   <autoFilter ref="F65:H67" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{0556E31F-66BD-46C9-8048-B47B64DDA5AD}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{7147F5E6-5193-4265-8A26-0620E4975F5C}" name="進捗"/>
   </tableColumns>
@@ -1654,7 +1712,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="F69:F70" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0BDE1D68-D9CF-43F5-AFC2-941A36F8748E}" name="番号"/>
@@ -1667,7 +1725,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}" name="テーブル12232529" displayName="テーブル12232529" ref="F71:H72" totalsRowShown="0">
   <autoFilter ref="F71:H72" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{CAB13F09-BF3B-424E-850E-519AFBA70AA2}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BBEE98CC-5DF6-4046-98C9-2AF71C798EFD}" name="進捗"/>
   </tableColumns>
@@ -1676,7 +1734,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="F74:F75" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{345A68F1-7A97-4407-B4BE-BF8E0F299DD0}" name="番号"/>
@@ -1689,7 +1747,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}" name="テーブル1223252931" displayName="テーブル1223252931" ref="F76:H77" totalsRowShown="0">
   <autoFilter ref="F76:H77" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{7787B71C-CAAC-435B-8282-380F2738DA5B}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{C2B66AEC-5DDF-45BE-8B99-A2D8790E1072}" name="進捗"/>
   </tableColumns>
@@ -1698,7 +1756,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="F79:F80" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{ED46E24D-1038-476E-B1F9-C681FE879E1F}" name="番号"/>
@@ -1711,7 +1769,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}" name="テーブル122325293133" displayName="テーブル122325293133" ref="F81:H82" totalsRowShown="0">
   <autoFilter ref="F81:H82" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{F5CDC7D0-4F6D-4905-9FBF-9835E3D83225}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{501349B0-0A36-405A-B0B1-8A06A8BDD7D0}" name="進捗"/>
   </tableColumns>
@@ -1720,7 +1778,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="F84:F85" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5FD96153-A699-4A49-A585-0D734452CB1E}" name="番号"/>
@@ -1743,7 +1801,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}" name="テーブル12232529313335" displayName="テーブル12232529313335" ref="F86:H88" totalsRowShown="0">
   <autoFilter ref="F86:H88" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{51244FE5-6A10-4BFE-803A-0D6C3C0BF579}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{97DAB44E-8C4B-4569-AC49-1F09EA036909}" name="進捗"/>
   </tableColumns>
@@ -1752,7 +1810,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
@@ -1774,7 +1832,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2028D46E-70C4-4766-BA2F-B440096E69DA}" name="番号"/>
@@ -1784,8 +1842,8 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B33185C4-02C2-487B-9A63-78AFBE94DDE3}" name="テーブル2621" displayName="テーブル2621" ref="F3:H12" totalsRowShown="0">
-  <autoFilter ref="F3:H12" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B33185C4-02C2-487B-9A63-78AFBE94DDE3}" name="テーブル2621" displayName="テーブル2621" ref="F3:H13" totalsRowShown="0">
+  <autoFilter ref="F3:H13" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{48A46E5B-9699-410F-BB41-A7AAFEC78FB5}" name="操作の説明"/>
     <tableColumn id="2" xr3:uid="{20B51BF7-90CF-460C-8905-70A6DF78300C}" name="操作方法"/>
@@ -7779,9 +7837,15 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F30" s="5">
         <v>9</v>
       </c>
@@ -7793,9 +7857,15 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F31" t="s">
         <v>1</v>
       </c>
@@ -7810,9 +7880,15 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F32" t="s">
         <v>56</v>
       </c>
@@ -7827,9 +7903,15 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F33" t="s">
         <v>57</v>
       </c>
@@ -10314,7 +10396,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 D2:D301 H87:H88" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 H87:H88 D2:D301" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13068,6 +13150,15 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+      <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
@@ -15376,7 +15467,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4:H12" xr:uid="{B8CC7235-B233-4341-BE54-0274AF752891}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D301 H4:H13" xr:uid="{B8CC7235-B233-4341-BE54-0274AF752891}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1FCE5-873E-4DE7-A784-5C454AC5872C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F3CDF-4A0A-4747-9F45-2779846161D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="1920" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -702,9 +702,6 @@
     <t>check-update</t>
   </si>
   <si>
-    <t>update ※1</t>
-  </si>
-  <si>
     <t>list installed</t>
   </si>
   <si>
@@ -1168,6 +1165,10 @@
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7244,7 +7245,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7519,7 +7520,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>106</v>
@@ -7542,10 +7543,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -7565,10 +7566,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -7588,10 +7589,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
@@ -7611,10 +7612,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>
@@ -7627,10 +7628,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
@@ -7645,10 +7646,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
@@ -7663,10 +7664,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>4</v>
@@ -7686,10 +7687,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
@@ -7709,10 +7710,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
@@ -7723,10 +7724,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>4</v>
@@ -7740,10 +7741,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
@@ -7757,10 +7758,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -7780,10 +7781,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -7803,10 +7804,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>4</v>
@@ -7818,10 +7819,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
@@ -7838,10 +7839,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -7858,10 +7859,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>4</v>
@@ -7881,10 +7882,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
@@ -7904,10 +7905,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
@@ -8126,7 +8127,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>110</v>
@@ -8143,7 +8144,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>111</v>
@@ -8160,10 +8161,10 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -8177,10 +8178,10 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="F51" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -8194,10 +8195,10 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="F52" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -8211,10 +8212,10 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -8228,10 +8229,10 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -8245,7 +8246,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="F55" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>107</v>
@@ -8309,10 +8310,10 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="F60" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -8326,10 +8327,10 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="F61" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -8390,7 +8391,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="F66" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>51</v>
@@ -8407,7 +8408,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="F67" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>74</v>
@@ -8471,10 +8472,10 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="F72" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -8535,10 +8536,10 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="F77" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -8599,10 +8600,10 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="F82" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -8663,10 +8664,10 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="F87" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -8680,7 +8681,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="F88" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>55</v>
@@ -12959,10 +12960,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -12998,10 +12999,10 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -13015,10 +13016,10 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -13032,10 +13033,10 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -13049,10 +13050,10 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -13066,10 +13067,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -13083,10 +13084,10 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -13100,10 +13101,10 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -13117,10 +13118,10 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -13134,7 +13135,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
         <v>109</v>
@@ -13151,10 +13152,10 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7F3CDF-4A0A-4747-9F45-2779846161D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1DEA4-CFC5-45BB-AEC5-0B53D198D216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="3720" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="205">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1169,6 +1169,47 @@
   </si>
   <si>
     <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chmod ※1 8進数の数値 ファイル/ディレクトリー</t>
+    <rPh sb="10" eb="12">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーミッション(ファイル、フォルダの権限)を変更する</t>
+    <rPh sb="18" eb="20">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ディレクトリ内のパーミッションも変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル/フォルダ元をファイル/フォルダ先へコピー</t>
+    <rPh sb="20" eb="21">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cp ファイル/フォルダ元 ファイル/フォルダ先</t>
+    <rPh sb="12" eb="13">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1268,7 +1309,24 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1546,7 +1604,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="F1:F2" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{6A2296FF-55A7-4C0B-B305-B8D08B65D0CA}" name="番号"/>
@@ -1559,7 +1617,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
   <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
   </tableColumns>
@@ -1568,7 +1626,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
@@ -1581,7 +1639,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
   <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{39777334-D76B-480A-A0F7-FD67FF63F194}" name="進捗"/>
   </tableColumns>
@@ -1613,7 +1671,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{737B2192-06DF-49C1-84E8-BEAD85893187}" name="番号"/>
@@ -1626,7 +1684,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
   <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{41A11C6D-7BAB-44F4-8F2F-C193653AEB88}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BF2848A5-2722-44C0-B2E0-B57A538E7E7C}" name="進捗"/>
   </tableColumns>
@@ -1635,7 +1693,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="F45:F46" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AD0438BF-E03B-48C0-B5B8-9AEF62033205}" name="コマンド"/>
@@ -1648,7 +1706,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}" name="テーブル1219" displayName="テーブル1219" ref="F47:H55" totalsRowShown="0">
   <autoFilter ref="F47:H55" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{59EEE5A6-B8D7-46D7-8391-9F68A9C071BF}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{92289722-4A60-4F66-BE22-491A6E40AC75}" name="進捗"/>
   </tableColumns>
@@ -1657,7 +1715,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="F57:F58" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E4169A0C-4F7D-4475-98E8-2F01475C4DCE}" name="番号"/>
@@ -1682,7 +1740,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}" name="テーブル1223" displayName="テーブル1223" ref="F59:H61" totalsRowShown="0">
   <autoFilter ref="F59:H61" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{3EF4FB93-730A-4AAD-8303-7F47CBA1DA9F}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{758DB119-4B86-4387-93A6-E1F1F9B733C7}" name="進捗"/>
   </tableColumns>
@@ -1691,7 +1749,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="F63:F64" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7B40C0DE-0BE6-4AFC-B122-4F1D8CA31437}" name="番号"/>
@@ -1704,7 +1762,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}" name="テーブル122325" displayName="テーブル122325" ref="F65:H67" totalsRowShown="0">
   <autoFilter ref="F65:H67" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{0556E31F-66BD-46C9-8048-B47B64DDA5AD}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{7147F5E6-5193-4265-8A26-0620E4975F5C}" name="進捗"/>
   </tableColumns>
@@ -1713,7 +1771,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="F69:F70" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0BDE1D68-D9CF-43F5-AFC2-941A36F8748E}" name="番号"/>
@@ -1726,7 +1784,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}" name="テーブル12232529" displayName="テーブル12232529" ref="F71:H72" totalsRowShown="0">
   <autoFilter ref="F71:H72" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{CAB13F09-BF3B-424E-850E-519AFBA70AA2}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BBEE98CC-5DF6-4046-98C9-2AF71C798EFD}" name="進捗"/>
   </tableColumns>
@@ -1735,7 +1793,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="F74:F75" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{345A68F1-7A97-4407-B4BE-BF8E0F299DD0}" name="番号"/>
@@ -1748,7 +1806,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}" name="テーブル1223252931" displayName="テーブル1223252931" ref="F76:H77" totalsRowShown="0">
   <autoFilter ref="F76:H77" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{7787B71C-CAAC-435B-8282-380F2738DA5B}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{C2B66AEC-5DDF-45BE-8B99-A2D8790E1072}" name="進捗"/>
   </tableColumns>
@@ -1757,7 +1815,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="F79:F80" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{ED46E24D-1038-476E-B1F9-C681FE879E1F}" name="番号"/>
@@ -1770,7 +1828,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}" name="テーブル122325293133" displayName="テーブル122325293133" ref="F81:H82" totalsRowShown="0">
   <autoFilter ref="F81:H82" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{F5CDC7D0-4F6D-4905-9FBF-9835E3D83225}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{501349B0-0A36-405A-B0B1-8A06A8BDD7D0}" name="進捗"/>
   </tableColumns>
@@ -1779,7 +1837,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="F84:F85" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5FD96153-A699-4A49-A585-0D734452CB1E}" name="番号"/>
@@ -1802,7 +1860,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}" name="テーブル12232529313335" displayName="テーブル12232529313335" ref="F86:H88" totalsRowShown="0">
   <autoFilter ref="F86:H88" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{51244FE5-6A10-4BFE-803A-0D6C3C0BF579}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{97DAB44E-8C4B-4569-AC49-1F09EA036909}" name="進捗"/>
   </tableColumns>
@@ -1811,7 +1869,29 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}" name="テーブル1122242830323436" displayName="テーブル1122242830323436" ref="F90:F91" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="F90:F91" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{BEA45127-138C-486D-AD8E-53EC77A2B95E}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}" name="テーブル1223252931333537" displayName="テーブル1223252931333537" ref="F92:H93" totalsRowShown="0">
+  <autoFilter ref="F92:H93" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{08993ABF-DD82-464A-9239-F478204C8713}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{9B761346-A886-4E87-A9B2-992CC7625C35}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{75A47EEC-36D9-4872-961C-DFE4EE59A273}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
@@ -1820,7 +1900,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
   <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
@@ -1832,8 +1912,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2028D46E-70C4-4766-BA2F-B440096E69DA}" name="番号"/>
@@ -1842,7 +1922,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B33185C4-02C2-487B-9A63-78AFBE94DDE3}" name="テーブル2621" displayName="テーブル2621" ref="F3:H13" totalsRowShown="0">
   <autoFilter ref="F3:H13" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
@@ -1867,10 +1947,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1880,7 +1960,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}" name="テーブル2" displayName="テーブル2" ref="F3:H5" totalsRowShown="0">
   <autoFilter ref="F3:H5" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{F215E8E9-FF1C-4229-93DC-8423BE148B82}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{B3F623C3-1B33-4459-B4C0-1C8B2BA9F880}" name="進捗"/>
   </tableColumns>
@@ -1889,10 +1969,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="F7:F8" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1902,7 +1982,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}" name="テーブル4" displayName="テーブル4" ref="F9:H17" totalsRowShown="0">
   <autoFilter ref="F9:H17" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{0374ED8F-DFD3-4C79-8BA9-0174FD707E8E}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{00DC9214-8803-4952-BC31-18E5804391B6}" name="進捗"/>
   </tableColumns>
@@ -1911,7 +1991,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="F19:F20" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E818AB7C-586F-4A27-B0B1-5D660CB6BEC1}" name="番号"/>
@@ -7927,9 +8007,15 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F34" t="s">
         <v>58</v>
       </c>
@@ -7944,9 +8030,15 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F35" t="s">
         <v>66</v>
       </c>
@@ -8705,6 +8797,9 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
+      <c r="F90" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
@@ -8713,6 +8808,9 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
+      <c r="F91" s="5">
+        <v>33</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
@@ -8721,6 +8819,15 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
+      <c r="F92" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
@@ -8729,6 +8836,15 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
+      <c r="F93" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
@@ -10397,13 +10513,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 H87:H88 D2:D301" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 H87:H88 H93 D2:D301" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="26">
+  <tableParts count="28">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -10430,6 +10546,8 @@
     <tablePart r:id="rId25"/>
     <tablePart r:id="rId26"/>
     <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1DEA4-CFC5-45BB-AEC5-0B53D198D216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844C16C-2E13-4C7B-A090-E448AD4CBAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="3720" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3975" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="208">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1210,6 +1210,33 @@
     <rPh sb="23" eb="24">
       <t>サキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scp ※1 コピー元 コピー先</t>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コピー元をコピー先に転送する</t>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 ディレクトリ内を再帰的にコピー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1309,7 +1336,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1335,6 +1362,23 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1604,7 +1648,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}" name="テーブル13" displayName="テーブル13" ref="F1:F2" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="F1:F2" xr:uid="{2CEEDBAA-54F0-47B9-B98B-DEC5387D66D2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{6A2296FF-55A7-4C0B-B305-B8D08B65D0CA}" name="番号"/>
@@ -1617,7 +1661,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
   <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{309478A7-2D5A-44DF-8CDF-D38D5E7CA38F}" name="進捗"/>
   </tableColumns>
@@ -1626,7 +1670,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
@@ -1639,7 +1683,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
   <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{39777334-D76B-480A-A0F7-FD67FF63F194}" name="進捗"/>
   </tableColumns>
@@ -1671,7 +1715,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{737B2192-06DF-49C1-84E8-BEAD85893187}" name="番号"/>
@@ -1684,7 +1728,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
   <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{41A11C6D-7BAB-44F4-8F2F-C193653AEB88}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BF2848A5-2722-44C0-B2E0-B57A538E7E7C}" name="進捗"/>
   </tableColumns>
@@ -1693,7 +1737,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="F45:F46" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AD0438BF-E03B-48C0-B5B8-9AEF62033205}" name="コマンド"/>
@@ -1706,7 +1750,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}" name="テーブル1219" displayName="テーブル1219" ref="F47:H55" totalsRowShown="0">
   <autoFilter ref="F47:H55" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{59EEE5A6-B8D7-46D7-8391-9F68A9C071BF}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{92289722-4A60-4F66-BE22-491A6E40AC75}" name="進捗"/>
   </tableColumns>
@@ -1715,7 +1759,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="F57:F58" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E4169A0C-4F7D-4475-98E8-2F01475C4DCE}" name="番号"/>
@@ -1740,7 +1784,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}" name="テーブル1223" displayName="テーブル1223" ref="F59:H61" totalsRowShown="0">
   <autoFilter ref="F59:H61" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{3EF4FB93-730A-4AAD-8303-7F47CBA1DA9F}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{758DB119-4B86-4387-93A6-E1F1F9B733C7}" name="進捗"/>
   </tableColumns>
@@ -1749,7 +1793,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="F63:F64" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7B40C0DE-0BE6-4AFC-B122-4F1D8CA31437}" name="番号"/>
@@ -1762,7 +1806,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}" name="テーブル122325" displayName="テーブル122325" ref="F65:H67" totalsRowShown="0">
   <autoFilter ref="F65:H67" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{0556E31F-66BD-46C9-8048-B47B64DDA5AD}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{7147F5E6-5193-4265-8A26-0620E4975F5C}" name="進捗"/>
   </tableColumns>
@@ -1771,7 +1815,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="F69:F70" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0BDE1D68-D9CF-43F5-AFC2-941A36F8748E}" name="番号"/>
@@ -1784,7 +1828,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}" name="テーブル12232529" displayName="テーブル12232529" ref="F71:H72" totalsRowShown="0">
   <autoFilter ref="F71:H72" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{CAB13F09-BF3B-424E-850E-519AFBA70AA2}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{BBEE98CC-5DF6-4046-98C9-2AF71C798EFD}" name="進捗"/>
   </tableColumns>
@@ -1793,7 +1837,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="F74:F75" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{345A68F1-7A97-4407-B4BE-BF8E0F299DD0}" name="番号"/>
@@ -1806,7 +1850,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}" name="テーブル1223252931" displayName="テーブル1223252931" ref="F76:H77" totalsRowShown="0">
   <autoFilter ref="F76:H77" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{7787B71C-CAAC-435B-8282-380F2738DA5B}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{C2B66AEC-5DDF-45BE-8B99-A2D8790E1072}" name="進捗"/>
   </tableColumns>
@@ -1815,7 +1859,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="F79:F80" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{ED46E24D-1038-476E-B1F9-C681FE879E1F}" name="番号"/>
@@ -1828,7 +1872,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}" name="テーブル122325293133" displayName="テーブル122325293133" ref="F81:H82" totalsRowShown="0">
   <autoFilter ref="F81:H82" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{F5CDC7D0-4F6D-4905-9FBF-9835E3D83225}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{501349B0-0A36-405A-B0B1-8A06A8BDD7D0}" name="進捗"/>
   </tableColumns>
@@ -1837,7 +1881,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="F84:F85" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5FD96153-A699-4A49-A585-0D734452CB1E}" name="番号"/>
@@ -1860,7 +1904,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}" name="テーブル12232529313335" displayName="テーブル12232529313335" ref="F86:H88" totalsRowShown="0">
   <autoFilter ref="F86:H88" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{51244FE5-6A10-4BFE-803A-0D6C3C0BF579}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{97DAB44E-8C4B-4569-AC49-1F09EA036909}" name="進捗"/>
   </tableColumns>
@@ -1869,7 +1913,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}" name="テーブル1122242830323436" displayName="テーブル1122242830323436" ref="F90:F91" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}" name="テーブル1122242830323436" displayName="テーブル1122242830323436" ref="F90:F91" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="F90:F91" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BEA45127-138C-486D-AD8E-53EC77A2B95E}" name="番号"/>
@@ -1882,7 +1926,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}" name="テーブル1223252931333537" displayName="テーブル1223252931333537" ref="F92:H93" totalsRowShown="0">
   <autoFilter ref="F92:H93" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{08993ABF-DD82-464A-9239-F478204C8713}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{08993ABF-DD82-464A-9239-F478204C8713}" name="操作の説明" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9B761346-A886-4E87-A9B2-992CC7625C35}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{75A47EEC-36D9-4872-961C-DFE4EE59A273}" name="進捗"/>
   </tableColumns>
@@ -1891,6 +1935,28 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{7CBEA518-81EC-4246-A882-FE0A1BC688FF}" name="テーブル112224283032343638" displayName="テーブル112224283032343638" ref="F95:F96" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="F95:F96" xr:uid="{7CBEA518-81EC-4246-A882-FE0A1BC688FF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9D9FD242-D1EC-43DB-A001-25CEDA2973ED}" name="番号"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{77C20F1B-DB98-4A9A-81F9-23F7C4791582}" name="テーブル122325293133353739" displayName="テーブル122325293133353739" ref="F97:H98" totalsRowShown="0">
+  <autoFilter ref="F97:H98" xr:uid="{77C20F1B-DB98-4A9A-81F9-23F7C4791582}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D644BCA6-57A3-406E-8BFD-A3F0C8BADF53}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2F6C2F9D-BED1-4B2B-94F6-7175E7E2EE1B}" name="操作方法"/>
+    <tableColumn id="3" xr3:uid="{6ACDACFB-0644-46B5-A631-0196439978A7}" name="進捗"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
@@ -1900,7 +1966,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}" name="テーブル26" displayName="テーブル26" ref="F3:H4" totalsRowShown="0">
   <autoFilter ref="F3:H4" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
@@ -1912,7 +1978,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
@@ -1922,7 +1988,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B33185C4-02C2-487B-9A63-78AFBE94DDE3}" name="テーブル2621" displayName="テーブル2621" ref="F3:H13" totalsRowShown="0">
   <autoFilter ref="F3:H13" xr:uid="{55111B81-DCE5-415C-9CE6-8EA0FE635F17}"/>
   <tableColumns count="3">
@@ -1947,10 +2013,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}" name="テーブル1" displayName="テーブル1" ref="F1:F2" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="F1:F2" xr:uid="{C9C2F09C-A2DF-458A-9C62-44C6800CD98D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{4F7BC2C1-0F2D-462F-ACBD-555A11D39316}" name="番号" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1960,7 +2026,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}" name="テーブル2" displayName="テーブル2" ref="F3:H5" totalsRowShown="0">
   <autoFilter ref="F3:H5" xr:uid="{BD85D786-2D44-47E0-894A-D2957F8AF4D3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{B5708597-828E-4276-BD83-8086356077C4}" name="操作の説明" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{F215E8E9-FF1C-4229-93DC-8423BE148B82}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{B3F623C3-1B33-4459-B4C0-1C8B2BA9F880}" name="進捗"/>
   </tableColumns>
@@ -1969,10 +2035,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}" name="テーブル3" displayName="テーブル3" ref="F7:F8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="F7:F8" xr:uid="{E5B9642B-C26F-4ED4-A96C-FDCBB417075D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{DA215BF0-F59B-40ED-B1C7-FF2FF4B205CE}" name="番号" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1982,7 +2048,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}" name="テーブル4" displayName="テーブル4" ref="F9:H17" totalsRowShown="0">
   <autoFilter ref="F9:H17" xr:uid="{4C9D06B7-E1DE-49B1-BF7E-34627FA59CB5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{B20736FB-DE74-4DB7-B50B-F3D99619A70A}" name="操作の説明" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{0374ED8F-DFD3-4C79-8BA9-0174FD707E8E}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{00DC9214-8803-4952-BC31-18E5804391B6}" name="進捗"/>
   </tableColumns>
@@ -1991,7 +2057,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}" name="テーブル5" displayName="テーブル5" ref="F19:F20" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="F19:F20" xr:uid="{A005A02C-A120-416B-ABD9-78F4A1D04E97}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E818AB7C-586F-4A27-B0B1-5D660CB6BEC1}" name="番号"/>
@@ -8053,9 +8119,15 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F36" t="s">
         <v>67</v>
       </c>
@@ -8861,6 +8933,9 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
+      <c r="F95" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
@@ -8869,24 +8944,45 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F96" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F97" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F98" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -8894,7 +8990,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -8902,7 +8998,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -8910,7 +9006,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -8918,7 +9014,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -8926,7 +9022,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -8934,7 +9030,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -8942,7 +9038,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -8950,7 +9046,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -8958,7 +9054,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8966,7 +9062,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8974,7 +9070,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8982,7 +9078,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8990,7 +9086,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -10513,13 +10609,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 H87:H88 H93 D2:D301" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 H87:H88 H93 D2:D301 H98" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="28">
+  <tableParts count="30">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -10548,6 +10644,8 @@
     <tablePart r:id="rId27"/>
     <tablePart r:id="rId28"/>
     <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>

--- a/004_技術資料/002_コマンド/コマンド一覧.xlsx
+++ b/004_技術資料/002_コマンド/コマンド一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\004_技術資料\002_コマンド\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844C16C-2E13-4C7B-A090-E448AD4CBAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5757C3D-E5CF-40EA-A99E-B4D4AAC962DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3975" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cmd" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="209">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -1237,6 +1237,16 @@
   </si>
   <si>
     <t>※1 ディレクトリ内を再帰的にコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認なしで削除する</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1344,6 +1354,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1361,7 +1372,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1658,8 +1668,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H22" totalsRowShown="0">
-  <autoFilter ref="F21:H22" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}" name="テーブル6" displayName="テーブル6" ref="F21:H23" totalsRowShown="0">
+  <autoFilter ref="F21:H23" xr:uid="{8DB32F1A-3499-4EC1-A4B1-9ECFD7EA034C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0B9C9CFA-759F-4FB0-B0B9-668B5C6E9D43}" name="操作の説明" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{1652CC36-05BE-48F7-963B-4F9EB0368AD0}" name="操作方法"/>
@@ -1670,8 +1680,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F24:F25" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="F24:F25" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}" name="テーブル7" displayName="テーブル7" ref="F25:F26" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="F25:F26" xr:uid="{9B23BEA6-8347-4451-918F-8EE7B55E0805}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A4AD64F4-F204-4461-941E-B8F11E5C4647}" name="番号"/>
   </tableColumns>
@@ -1680,8 +1690,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F26:H27" totalsRowShown="0">
-  <autoFilter ref="F26:H27" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}" name="テーブル8" displayName="テーブル8" ref="F27:H28" totalsRowShown="0">
+  <autoFilter ref="F27:H28" xr:uid="{0A51BD3D-0048-4E6E-BB0B-DC4FDAD4923E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F0C1B714-159F-4C33-8E9B-3C386E9753B1}" name="操作の説明" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{DC57E091-F57C-4BAD-B63D-FE9BCC511347}" name="操作方法"/>
@@ -1692,8 +1702,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}" name="テーブル9" displayName="テーブル9" ref="F29:G30" totalsRowShown="0">
-  <autoFilter ref="F29:G30" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}" name="テーブル9" displayName="テーブル9" ref="F30:G31" totalsRowShown="0">
+  <autoFilter ref="F30:G31" xr:uid="{C3E3DC82-5E5A-45A8-91C0-DC6634410869}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{84E6FBA7-11FC-4943-B598-C15BDE5089C5}" name="番号"/>
     <tableColumn id="2" xr3:uid="{4F1FF764-8E4A-4FD2-8240-7350C72D5624}" name="列1"/>
@@ -1703,8 +1713,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}" name="テーブル10" displayName="テーブル10" ref="F31:H37" totalsRowShown="0">
-  <autoFilter ref="F31:H37" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}" name="テーブル10" displayName="テーブル10" ref="F32:H38" totalsRowShown="0">
+  <autoFilter ref="F32:H38" xr:uid="{1D545E13-AF26-4B49-8E55-AD8B3FA5AB01}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{849B791E-BFC9-4788-80E4-EA18A1557D79}" name="操作の説明"/>
     <tableColumn id="2" xr3:uid="{80E703EE-5ABF-4DC6-BA28-6FC365290327}" name="操作方法"/>
@@ -1715,8 +1725,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F39:F40" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="F39:F40" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}" name="テーブル11" displayName="テーブル11" ref="F40:F41" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="F40:F41" xr:uid="{8818C13A-93F6-4718-97D1-8554F17B3306}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{737B2192-06DF-49C1-84E8-BEAD85893187}" name="番号"/>
   </tableColumns>
@@ -1725,8 +1735,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F41:H43" totalsRowShown="0">
-  <autoFilter ref="F41:H43" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}" name="テーブル12" displayName="テーブル12" ref="F42:H44" totalsRowShown="0">
+  <autoFilter ref="F42:H44" xr:uid="{FD5DC2FF-A04E-4CF6-AC48-0E251F25270B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1DD1AFCC-72EB-4A5D-A7EA-CC297AF12733}" name="操作の説明" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{41A11C6D-7BAB-44F4-8F2F-C193653AEB88}" name="操作方法"/>
@@ -1737,8 +1747,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F45:F46" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="F45:F46" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}" name="テーブル1117" displayName="テーブル1117" ref="F46:F47" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="F46:F47" xr:uid="{D05EC11B-6278-40A6-8A14-E8570423906B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AD0438BF-E03B-48C0-B5B8-9AEF62033205}" name="コマンド"/>
   </tableColumns>
@@ -1747,8 +1757,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}" name="テーブル1219" displayName="テーブル1219" ref="F47:H55" totalsRowShown="0">
-  <autoFilter ref="F47:H55" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}" name="テーブル1219" displayName="テーブル1219" ref="F48:H56" totalsRowShown="0">
+  <autoFilter ref="F48:H56" xr:uid="{5F11BC67-D8B7-4618-B70A-E696ED6BEFB5}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B83D324F-3D76-43AC-A3D9-32139A7B3729}" name="操作の説明" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{59EEE5A6-B8D7-46D7-8391-9F68A9C071BF}" name="操作方法"/>
@@ -1759,8 +1769,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F57:F58" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="F57:F58" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}" name="テーブル1122" displayName="テーブル1122" ref="F58:F59" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="F58:F59" xr:uid="{50F20B94-0DFC-4D94-96B5-BD5A2600A4F2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{E4169A0C-4F7D-4475-98E8-2F01475C4DCE}" name="番号"/>
   </tableColumns>
@@ -1781,8 +1791,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}" name="テーブル1223" displayName="テーブル1223" ref="F59:H61" totalsRowShown="0">
-  <autoFilter ref="F59:H61" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}" name="テーブル1223" displayName="テーブル1223" ref="F60:H62" totalsRowShown="0">
+  <autoFilter ref="F60:H62" xr:uid="{898E62B0-B7F3-4A4F-936A-A978E0AED330}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{58956829-E614-4AA3-BEF1-AAE4AD79E502}" name="操作の説明" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{3EF4FB93-730A-4AAD-8303-7F47CBA1DA9F}" name="操作方法"/>
@@ -1793,8 +1803,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F63:F64" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="F63:F64" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}" name="テーブル112224" displayName="テーブル112224" ref="F64:F65" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="F64:F65" xr:uid="{7B7F99C9-C211-41F2-A569-DAC925E3E348}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{7B40C0DE-0BE6-4AFC-B122-4F1D8CA31437}" name="番号"/>
   </tableColumns>
@@ -1803,8 +1813,8 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}" name="テーブル122325" displayName="テーブル122325" ref="F65:H67" totalsRowShown="0">
-  <autoFilter ref="F65:H67" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}" name="テーブル122325" displayName="テーブル122325" ref="F66:H68" totalsRowShown="0">
+  <autoFilter ref="F66:H68" xr:uid="{206C5CDA-78BC-44BC-8F16-65312740A3FC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{13879F60-226B-4932-A483-6CDC7FFBC411}" name="操作の説明" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{0556E31F-66BD-46C9-8048-B47B64DDA5AD}" name="操作方法"/>
@@ -1815,8 +1825,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F69:F70" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="F69:F70" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}" name="テーブル11222428" displayName="テーブル11222428" ref="F70:F71" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="F70:F71" xr:uid="{20EC4ED0-15EE-49D9-8E04-F25799A1F44B}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0BDE1D68-D9CF-43F5-AFC2-941A36F8748E}" name="番号"/>
   </tableColumns>
@@ -1825,8 +1835,8 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}" name="テーブル12232529" displayName="テーブル12232529" ref="F71:H72" totalsRowShown="0">
-  <autoFilter ref="F71:H72" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}" name="テーブル12232529" displayName="テーブル12232529" ref="F72:H73" totalsRowShown="0">
+  <autoFilter ref="F72:H73" xr:uid="{33605657-EB5E-4563-8197-E90D72791761}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4E5350DA-234D-4F0D-9D93-C27EE9BBD530}" name="操作の説明" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{CAB13F09-BF3B-424E-850E-519AFBA70AA2}" name="操作方法"/>
@@ -1837,8 +1847,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F74:F75" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="F74:F75" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}" name="テーブル1122242830" displayName="テーブル1122242830" ref="F75:F76" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="F75:F76" xr:uid="{C017FB7A-FC10-4CE1-9B49-49AF94BD7485}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{345A68F1-7A97-4407-B4BE-BF8E0F299DD0}" name="番号"/>
   </tableColumns>
@@ -1847,8 +1857,8 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}" name="テーブル1223252931" displayName="テーブル1223252931" ref="F76:H77" totalsRowShown="0">
-  <autoFilter ref="F76:H77" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}" name="テーブル1223252931" displayName="テーブル1223252931" ref="F77:H78" totalsRowShown="0">
+  <autoFilter ref="F77:H78" xr:uid="{DC4A3CBF-2C7B-4EC0-BBEA-F7A5550023ED}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C19285E4-90E2-4B04-B943-38FF4A124E7B}" name="操作の説明" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{7787B71C-CAAC-435B-8282-380F2738DA5B}" name="操作方法"/>
@@ -1859,8 +1869,8 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F79:F80" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="F79:F80" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}" name="テーブル112224283032" displayName="テーブル112224283032" ref="F80:F81" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="F80:F81" xr:uid="{3D4F7928-B1DA-4D35-8E3B-36B2C8C581B5}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{ED46E24D-1038-476E-B1F9-C681FE879E1F}" name="番号"/>
   </tableColumns>
@@ -1869,8 +1879,8 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}" name="テーブル122325293133" displayName="テーブル122325293133" ref="F81:H82" totalsRowShown="0">
-  <autoFilter ref="F81:H82" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}" name="テーブル122325293133" displayName="テーブル122325293133" ref="F82:H83" totalsRowShown="0">
+  <autoFilter ref="F82:H83" xr:uid="{80A53EDE-CECA-4BA6-8D8C-3E87C921D393}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9A65CBA9-A254-4AAA-8911-30F2B05BB9EF}" name="操作の説明" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{F5CDC7D0-4F6D-4905-9FBF-9835E3D83225}" name="操作方法"/>
@@ -1881,8 +1891,8 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F84:F85" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="F84:F85" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}" name="テーブル11222428303234" displayName="テーブル11222428303234" ref="F85:F86" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="F85:F86" xr:uid="{205AF1C0-F8CD-4D14-A9FD-7754DA2B85B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{5FD96153-A699-4A49-A585-0D734452CB1E}" name="番号"/>
   </tableColumns>
@@ -1901,8 +1911,8 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}" name="テーブル12232529313335" displayName="テーブル12232529313335" ref="F86:H88" totalsRowShown="0">
-  <autoFilter ref="F86:H88" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}" name="テーブル12232529313335" displayName="テーブル12232529313335" ref="F87:H89" totalsRowShown="0">
+  <autoFilter ref="F87:H89" xr:uid="{B8D4BE1A-7822-4D46-B5E7-FD81CF53800D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D0C36C46-DF24-432C-B34E-DEEDFA68A5DE}" name="操作の説明" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{51244FE5-6A10-4BFE-803A-0D6C3C0BF579}" name="操作方法"/>
@@ -1913,8 +1923,8 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}" name="テーブル1122242830323436" displayName="テーブル1122242830323436" ref="F90:F91" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="F90:F91" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}" name="テーブル1122242830323436" displayName="テーブル1122242830323436" ref="F91:F92" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="F91:F92" xr:uid="{352272B9-0408-494C-9DB8-09D4E79C15A0}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BEA45127-138C-486D-AD8E-53EC77A2B95E}" name="番号"/>
   </tableColumns>
@@ -1923,8 +1933,8 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}" name="テーブル1223252931333537" displayName="テーブル1223252931333537" ref="F92:H93" totalsRowShown="0">
-  <autoFilter ref="F92:H93" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}" name="テーブル1223252931333537" displayName="テーブル1223252931333537" ref="F93:H94" totalsRowShown="0">
+  <autoFilter ref="F93:H94" xr:uid="{1BD0DBFE-7CB7-4CA2-83BB-79A6027A6A19}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{08993ABF-DD82-464A-9239-F478204C8713}" name="操作の説明" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9B761346-A886-4E87-A9B2-992CC7625C35}" name="操作方法"/>
@@ -1935,8 +1945,8 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{7CBEA518-81EC-4246-A882-FE0A1BC688FF}" name="テーブル112224283032343638" displayName="テーブル112224283032343638" ref="F95:F96" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="F95:F96" xr:uid="{7CBEA518-81EC-4246-A882-FE0A1BC688FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{7CBEA518-81EC-4246-A882-FE0A1BC688FF}" name="テーブル112224283032343638" displayName="テーブル112224283032343638" ref="F96:F97" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="F96:F97" xr:uid="{7CBEA518-81EC-4246-A882-FE0A1BC688FF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9D9FD242-D1EC-43DB-A001-25CEDA2973ED}" name="番号"/>
   </tableColumns>
@@ -1945,10 +1955,10 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{77C20F1B-DB98-4A9A-81F9-23F7C4791582}" name="テーブル122325293133353739" displayName="テーブル122325293133353739" ref="F97:H98" totalsRowShown="0">
-  <autoFilter ref="F97:H98" xr:uid="{77C20F1B-DB98-4A9A-81F9-23F7C4791582}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{77C20F1B-DB98-4A9A-81F9-23F7C4791582}" name="テーブル122325293133353739" displayName="テーブル122325293133353739" ref="F98:H99" totalsRowShown="0">
+  <autoFilter ref="F98:H99" xr:uid="{77C20F1B-DB98-4A9A-81F9-23F7C4791582}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D644BCA6-57A3-406E-8BFD-A3F0C8BADF53}" name="操作の説明" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D644BCA6-57A3-406E-8BFD-A3F0C8BADF53}" name="操作の説明" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{2F6C2F9D-BED1-4B2B-94F6-7175E7E2EE1B}" name="操作方法"/>
     <tableColumn id="3" xr3:uid="{6ACDACFB-0644-46B5-A631-0196439978A7}" name="進捗"/>
   </tableColumns>
@@ -1957,7 +1967,7 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}" name="テーブル25" displayName="テーブル25" ref="F1:F2" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{61EF1334-54FC-4AFF-99A1-29D5FE6C3296}" name="番号"/>
@@ -1979,7 +1989,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EB40611F-9562-4A67-B09F-C525F023D7FD}" name="テーブル2520" displayName="テーブル2520" ref="F1:F2" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="F1:F2" xr:uid="{F26FE757-2B1E-4CE5-92BC-700FA7EC36E1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{2028D46E-70C4-4766-BA2F-B440096E69DA}" name="番号"/>
@@ -7864,6 +7874,15 @@
       <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
@@ -7878,9 +7897,6 @@
       <c r="D24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
@@ -7895,8 +7911,8 @@
       <c r="D25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="5">
-        <v>8</v>
+      <c r="F25" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -7912,14 +7928,8 @@
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3</v>
+      <c r="F26" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -7936,13 +7946,13 @@
         <v>4</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -7958,7 +7968,15 @@
       <c r="D28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
@@ -7973,12 +7991,7 @@
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>77</v>
-      </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
@@ -7993,11 +8006,11 @@
       <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="5">
-        <v>9</v>
-      </c>
-      <c r="G30">
-        <v>10</v>
+      <c r="F30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -8013,14 +8026,11 @@
       <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" t="s">
-        <v>3</v>
+      <c r="F31" s="5">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -8037,13 +8047,13 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -8060,10 +8070,10 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -8083,10 +8093,10 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -8106,10 +8116,10 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -8129,10 +8139,10 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -8146,10 +8156,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -8162,6 +8172,15 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
@@ -8170,9 +8189,6 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="F39" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
@@ -8181,8 +8197,8 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="F40" s="5">
-        <v>12</v>
+      <c r="F40" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -8192,14 +8208,8 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="F41" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>3</v>
+      <c r="F41" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -8210,13 +8220,13 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="F42" s="7" t="s">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -8227,10 +8237,10 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -8243,6 +8253,15 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
+      <c r="F44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
@@ -8251,9 +8270,6 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="F45" s="3" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
@@ -8262,8 +8278,8 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="F46" s="5">
-        <v>14</v>
+      <c r="F46" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -8273,14 +8289,8 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="F47" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" t="s">
-        <v>3</v>
+      <c r="F47" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -8291,13 +8301,13 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="7" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -8308,10 +8318,10 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -8325,10 +8335,10 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -8342,10 +8352,10 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="F51" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -8359,10 +8369,10 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="F52" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -8376,10 +8386,10 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -8393,10 +8403,10 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -8410,10 +8420,10 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="F55" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -8426,6 +8436,15 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
+      <c r="F56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
@@ -8434,9 +8453,6 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="F57" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
@@ -8445,8 +8461,8 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="F58" s="5">
-        <v>15</v>
+      <c r="F58" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -8456,14 +8472,8 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="F59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H59" t="s">
-        <v>3</v>
+      <c r="F59" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -8474,13 +8484,13 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="F60" s="7" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -8491,10 +8501,10 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="F61" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -8507,6 +8517,15 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
+      <c r="F62" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
@@ -8515,9 +8534,6 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="F63" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
@@ -8526,8 +8542,8 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="F64" s="5">
-        <v>21</v>
+      <c r="F64" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -8537,14 +8553,8 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="F65" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" t="s">
-        <v>3</v>
+      <c r="F65" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -8555,13 +8565,13 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="F66" s="7" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -8572,10 +8582,10 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="F67" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -8588,6 +8598,15 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
+      <c r="F68" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
@@ -8596,9 +8615,6 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="F69" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
@@ -8607,8 +8623,8 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="F70" s="5">
-        <v>22</v>
+      <c r="F70" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -8618,14 +8634,8 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="F71" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" t="s">
-        <v>3</v>
+      <c r="F71" s="5">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -8636,13 +8646,13 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="F72" s="7" t="s">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -8652,6 +8662,15 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
+      <c r="F73" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
@@ -8660,9 +8679,6 @@
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="F74" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
@@ -8671,8 +8687,8 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="F75" s="5">
-        <v>23</v>
+      <c r="F75" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -8682,14 +8698,8 @@
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
-      <c r="F76" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" t="s">
-        <v>3</v>
+      <c r="F76" s="5">
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -8700,13 +8710,13 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="F77" s="7" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -8716,6 +8726,15 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
+      <c r="F78" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
@@ -8724,9 +8743,6 @@
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
-      <c r="F79" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
@@ -8735,8 +8751,8 @@
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
-      <c r="F80" s="5">
-        <v>27</v>
+      <c r="F80" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -8746,14 +8762,8 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
-      <c r="F81" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" t="s">
-        <v>3</v>
+      <c r="F81" s="5">
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -8764,13 +8774,13 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="F82" s="7" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -8780,6 +8790,15 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
+      <c r="F83" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H83" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
@@ -8788,9 +8807,6 @@
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
-      <c r="F84" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
@@ -8799,8 +8815,8 @@
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
-      <c r="F85" s="5">
-        <v>28</v>
+      <c r="F85" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -8810,14 +8826,8 @@
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
-      <c r="F86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86" t="s">
-        <v>3</v>
+      <c r="F86" s="5">
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -8828,13 +8838,13 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="F87" s="7" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -8845,10 +8855,10 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="F88" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -8861,6 +8871,15 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
+      <c r="F89" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
@@ -8869,9 +8888,6 @@
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
-      <c r="F90" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
@@ -8880,8 +8896,8 @@
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
-      <c r="F91" s="5">
-        <v>33</v>
+      <c r="F91" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -8891,14 +8907,8 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
-      <c r="F92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" t="s">
-        <v>3</v>
+      <c r="F92" s="5">
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -8909,13 +8919,13 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="F93" s="7" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -8925,6 +8935,15 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
+      <c r="F94" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
@@ -8933,9 +8952,6 @@
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
-      <c r="F95" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
@@ -8944,8 +8960,8 @@
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
-      <c r="F96" s="5">
-        <v>35</v>
+      <c r="F96" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -8955,14 +8971,8 @@
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="F97" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" t="s">
-        <v>3</v>
+      <c r="F97" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -8973,13 +8983,13 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="F98" s="7" t="s">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
@@ -8989,6 +8999,15 @@
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
+      <c r="F99" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
@@ -10609,7 +10628,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H42:H43 H4:H5 H10:H17 H22 H27 H32:H37 H48:H55 H60:H61 H66:H67 H72 H77 H82 H87:H88 H93 D2:D301 H98" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H43:H44 H4:H5 H10:H17 H28 H33:H38 H49:H56 H61:H62 H67:H68 H73 H78 H83 H88:H89 H94 D2:D301 H99 H22:H23" xr:uid="{629A8ECB-2DC4-4F07-9F51-DD9DA099B807}">
       <formula1>"open,close"</formula1>
     </dataValidation>
   </dataValidations>
